--- a/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalUserRoleDelegation.xlsx
+++ b/Documentation/Documents/SQL Generator/Data Initial/HumanResource.TblWorkerCareerInternalUserRoleDelegation.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAIN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -663,10 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
